--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_coal_related_energy.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-2.33</v>
+        <v>-2.25</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.79</v>
+        <v>0.592</v>
       </c>
       <c r="V2">
-        <v>0.06605166051660516</v>
+        <v>0.02152727272727272</v>
       </c>
       <c r="W2">
-        <v>-0.1676258992805755</v>
+        <v>-0.1461038961038961</v>
       </c>
       <c r="X2">
-        <v>0.1709736802133493</v>
+        <v>0.09156073182779319</v>
       </c>
       <c r="Y2">
-        <v>-0.3385995794939248</v>
+        <v>-0.2376646279316893</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.1222358722358722</v>
+        <v>-0.09648633575013943</v>
       </c>
       <c r="AB2">
-        <v>0.1571628072370402</v>
+        <v>0.08492258372912596</v>
       </c>
       <c r="AC2">
-        <v>-0.2793986794729124</v>
+        <v>-0.1814089194792654</v>
       </c>
       <c r="AD2">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="AG2">
-        <v>2.53</v>
+        <v>4.158</v>
       </c>
       <c r="AH2">
-        <v>0.1374920432845322</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="AI2">
-        <v>0.2190669371196755</v>
+        <v>0.2454780361757106</v>
       </c>
       <c r="AJ2">
-        <v>0.08538643266959163</v>
+        <v>0.1313412091730368</v>
       </c>
       <c r="AK2">
-        <v>0.1411042944785276</v>
+        <v>0.2216654227529588</v>
       </c>
       <c r="AL2">
-        <v>0.787</v>
+        <v>0.986</v>
       </c>
       <c r="AM2">
-        <v>0.787</v>
+        <v>0.986</v>
       </c>
       <c r="AN2">
-        <v>-2.25</v>
+        <v>-2.844311377245509</v>
       </c>
       <c r="AO2">
-        <v>-2.52858958068615</v>
+        <v>-1.754563894523327</v>
       </c>
       <c r="AP2">
-        <v>-1.317708333333333</v>
+        <v>-2.489820359281437</v>
       </c>
       <c r="AQ2">
-        <v>-2.52858958068615</v>
+        <v>-1.754563894523327</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-2.33</v>
+        <v>-2.25</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +725,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.79</v>
+        <v>0.592</v>
       </c>
       <c r="V3">
-        <v>0.06605166051660516</v>
+        <v>0.02152727272727272</v>
       </c>
       <c r="W3">
-        <v>-0.1676258992805755</v>
+        <v>-0.1461038961038961</v>
       </c>
       <c r="X3">
-        <v>0.1709736802133493</v>
+        <v>0.09156073182779319</v>
       </c>
       <c r="Y3">
-        <v>-0.3385995794939248</v>
+        <v>-0.2376646279316893</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.1222358722358722</v>
+        <v>-0.09648633575013943</v>
       </c>
       <c r="AB3">
-        <v>0.1571628072370402</v>
+        <v>0.08492258372912596</v>
       </c>
       <c r="AC3">
-        <v>-0.2793986794729124</v>
+        <v>-0.1814089194792654</v>
       </c>
       <c r="AD3">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="AG3">
-        <v>2.53</v>
+        <v>4.158</v>
       </c>
       <c r="AH3">
-        <v>0.1374920432845322</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="AI3">
-        <v>0.2190669371196755</v>
+        <v>0.2454780361757106</v>
       </c>
       <c r="AJ3">
-        <v>0.08538643266959163</v>
+        <v>0.1313412091730368</v>
       </c>
       <c r="AK3">
-        <v>0.1411042944785276</v>
+        <v>0.2216654227529588</v>
       </c>
       <c r="AL3">
-        <v>0.787</v>
+        <v>0.986</v>
       </c>
       <c r="AM3">
-        <v>0.787</v>
+        <v>0.986</v>
       </c>
       <c r="AN3">
-        <v>-2.25</v>
+        <v>-2.844311377245509</v>
       </c>
       <c r="AO3">
-        <v>-2.52858958068615</v>
+        <v>-1.754563894523327</v>
       </c>
       <c r="AP3">
-        <v>-1.317708333333333</v>
+        <v>-2.489820359281437</v>
       </c>
       <c r="AQ3">
-        <v>-2.52858958068615</v>
+        <v>-1.754563894523327</v>
       </c>
     </row>
   </sheetData>
